--- a/resources/test/extract.xlsx
+++ b/resources/test/extract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pyrepo\shares-reporting\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE00833C-3D90-491D-8B24-A44FD27397D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76DC403-7677-4DCB-A0DC-3DFC6E6AA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2715" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,12 +650,28 @@
   <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="52" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="39" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -739,15 +755,15 @@
         <v>17</v>
       </c>
       <c r="O3" s="1">
-        <f>30*11.26</f>
+        <f>0+30*11.26</f>
         <v>337.8</v>
       </c>
       <c r="P3" s="1">
-        <f>30*12.1</f>
+        <f>0+30*12.1</f>
         <v>363</v>
       </c>
       <c r="Q3" s="1">
-        <f>30*1.0384/30+30*1.0894/30</f>
+        <f>0+30*1.0384/30+30*1.0894/30</f>
         <v>2.1277999999999997</v>
       </c>
     </row>
@@ -771,15 +787,15 @@
         <v>21</v>
       </c>
       <c r="O4" s="1">
-        <f>20*8.372+20*8.396</f>
+        <f>0+20*8.372+20*8.396</f>
         <v>335.36</v>
       </c>
       <c r="P4" s="1">
-        <f>20*10.56+20*9.472</f>
+        <f>0+20*10.56+20*9.472</f>
         <v>400.64</v>
       </c>
       <c r="Q4" s="1">
-        <f>20*1.25/20+20*1.8916792/20+20*1.892112/20+20*1.8918944/20</f>
+        <f>0+20*1.25/20+20*1.8916792/20+20*1.892112/20+20*1.8918944/20</f>
         <v>6.9256856000000004</v>
       </c>
     </row>
@@ -803,15 +819,15 @@
         <v>23</v>
       </c>
       <c r="O5" s="1">
-        <f>10*29.91+10*30.96</f>
+        <f>0+10*29.91+10*30.96</f>
         <v>608.70000000000005</v>
       </c>
       <c r="P5" s="1">
-        <f>5*32.61+10*32.51+5*32.42</f>
+        <f>0+5*32.61+10*32.51+5*32.42</f>
         <v>650.25</v>
       </c>
       <c r="Q5" s="1">
-        <f>10*1.17/10+10*1.17/10+5*1.98525/5+10*2.8555/10+5*1.9805/5</f>
+        <f>0+10*1.17/10+10*1.17/10+5*1.98525/5+10*2.8555/10+5*1.9805/5</f>
         <v>9.161249999999999</v>
       </c>
     </row>
@@ -835,15 +851,15 @@
         <v>23</v>
       </c>
       <c r="O6" s="1">
-        <f>10*33.675</f>
+        <f>0+10*33.675</f>
         <v>336.75</v>
       </c>
       <c r="P6" s="1">
-        <f>10*27.33</f>
+        <f>0+10*27.33</f>
         <v>273.29999999999995</v>
       </c>
       <c r="Q6" s="1">
-        <f>10*1.17/10+10*2.5365/10</f>
+        <f>0+10*1.17/10+10*2.5365/10</f>
         <v>3.7065000000000001</v>
       </c>
     </row>
@@ -867,15 +883,15 @@
         <v>23</v>
       </c>
       <c r="O7" s="1">
-        <f>500*0.242+500*0.25</f>
+        <f>0+500*0.242+500*0.25</f>
         <v>246</v>
       </c>
       <c r="P7" s="1">
-        <f>1000*0.2126</f>
+        <f>0+1000*0.2126</f>
         <v>212.60000000000002</v>
       </c>
       <c r="Q7" s="1">
-        <f>500*1.17/500+500*1.17/500+1000*1.17/1000</f>
+        <f>0+500*1.17/500+500*1.17/500+1000*1.17/1000</f>
         <v>3.51</v>
       </c>
     </row>
@@ -899,15 +915,15 @@
         <v>23</v>
       </c>
       <c r="O8" s="1">
-        <f>1000*0.284+100*0.301+400*0.31</f>
+        <f>0+1000*0.284+100*0.301+400*0.31</f>
         <v>438.1</v>
       </c>
       <c r="P8" s="1">
-        <f>1500*0.2</f>
+        <f>0+1500*0.2</f>
         <v>300</v>
       </c>
       <c r="Q8" s="1">
-        <f>1000*1.17/1000+100*1.17/100+400*1.17/1000+1500*1.17/1500</f>
+        <f>0+1000*1.17/1000+100*1.17/100+400*1.17/1000+1500*1.17/1500</f>
         <v>3.9779999999999998</v>
       </c>
     </row>
@@ -931,15 +947,15 @@
         <v>23</v>
       </c>
       <c r="O9" s="1">
-        <f>600*0.31+1000*0.365</f>
+        <f>0+600*0.31+1000*0.365</f>
         <v>551</v>
       </c>
       <c r="P9" s="1">
-        <f>1000*0.192+600*0.171</f>
+        <f>0+1000*0.192+600*0.171</f>
         <v>294.60000000000002</v>
       </c>
       <c r="Q9" s="1">
-        <f>600*1.17/1000+1000*1.17/1000+1000*1.17/1000+600*1.17/2000</f>
+        <f>0+600*1.17/1000+1000*1.17/1000+1000*1.17/1000+600*1.17/2000</f>
         <v>3.3929999999999998</v>
       </c>
     </row>
@@ -963,15 +979,15 @@
         <v>23</v>
       </c>
       <c r="O10" s="1">
-        <f>2*7.998</f>
+        <f>0+2*7.998</f>
         <v>15.996</v>
       </c>
       <c r="P10" s="1">
-        <f>1*8.902+1*8.768</f>
+        <f>0+1*8.902+1*8.768</f>
         <v>17.670000000000002</v>
       </c>
       <c r="Q10" s="1">
-        <f>2*1.17/15+1*1.21451/1+1*1.21384/1</f>
+        <f>0+2*1.17/15+1*1.21451/1+1*1.21384/1</f>
         <v>2.5843499999999997</v>
       </c>
     </row>
@@ -995,15 +1011,15 @@
         <v>23</v>
       </c>
       <c r="O11" s="1">
-        <f>13*7.998</f>
+        <f>0+13*7.998</f>
         <v>103.974</v>
       </c>
       <c r="P11" s="1">
-        <f>13*7.954</f>
+        <f>0+13*7.954</f>
         <v>103.402</v>
       </c>
       <c r="Q11" s="1">
-        <f>13*1.17/15+13*3.1585/50</f>
+        <f>0+13*1.17/15+13*3.1585/50</f>
         <v>1.83521</v>
       </c>
     </row>
@@ -1027,15 +1043,15 @@
         <v>23</v>
       </c>
       <c r="O12" s="1">
-        <f>10*8.548</f>
+        <f>0+10*8.548</f>
         <v>85.48</v>
       </c>
       <c r="P12" s="1">
-        <f>10*7.954</f>
+        <f>0+10*7.954</f>
         <v>79.539999999999992</v>
       </c>
       <c r="Q12" s="1">
-        <f>10*1.17/10+10*3.1585/50</f>
+        <f>0+10*1.17/10+10*3.1585/50</f>
         <v>1.8016999999999999</v>
       </c>
     </row>
@@ -1059,15 +1075,15 @@
         <v>23</v>
       </c>
       <c r="O13" s="1">
-        <f>10*8.976</f>
+        <f>0+10*8.976</f>
         <v>89.76</v>
       </c>
       <c r="P13" s="1">
-        <f>10*7.954</f>
+        <f>0+10*7.954</f>
         <v>79.539999999999992</v>
       </c>
       <c r="Q13" s="1">
-        <f>10*1.17/10+10*3.1585/50</f>
+        <f>0+10*1.17/10+10*3.1585/50</f>
         <v>1.8016999999999999</v>
       </c>
     </row>
@@ -1091,15 +1107,15 @@
         <v>23</v>
       </c>
       <c r="O14" s="1">
-        <f>17*9.196</f>
+        <f>0+17*9.196</f>
         <v>156.33199999999999</v>
       </c>
       <c r="P14" s="1">
-        <f>17*7.954</f>
+        <f>0+17*7.954</f>
         <v>135.21799999999999</v>
       </c>
       <c r="Q14" s="1">
-        <f>17*1.17/17+17*3.1585/50</f>
+        <f>0+17*1.17/17+17*3.1585/50</f>
         <v>2.2438899999999999</v>
       </c>
     </row>
@@ -1123,15 +1139,15 @@
         <v>32</v>
       </c>
       <c r="O15" s="1">
-        <f>400*20.95</f>
+        <f>0+400*20.95</f>
         <v>8380</v>
       </c>
       <c r="P15" s="1">
-        <f>400*20.65</f>
+        <f>0+400*20.65</f>
         <v>8260</v>
       </c>
       <c r="Q15" s="1">
-        <f>400*32.14526/400+400*32.13602/400</f>
+        <f>0+400*32.14526/400+400*32.13602/400</f>
         <v>64.28128000000001</v>
       </c>
     </row>
@@ -1155,15 +1171,15 @@
         <v>34</v>
       </c>
       <c r="O16" s="1">
-        <f>5*169.96+5*179.88+5*191.5+5*199.66</f>
+        <f>0+5*169.96+5*179.88+5*191.5+5*199.66</f>
         <v>3705</v>
       </c>
       <c r="P16" s="1">
-        <f>10*180.32+10*166</f>
+        <f>0+10*180.32+10*166</f>
         <v>3463.2</v>
       </c>
       <c r="Q16" s="1">
-        <f>5*6.042580174/5+5*6.057740723/5+5*6.079085772/5+5*6.090917772/5+10*6.327116137/10+10*6.287274888/10</f>
+        <f>0+5*6.042580174/5+5*6.057740723/5+5*6.079085772/5+5*6.090917772/5+10*6.327116137/10+10*6.287274888/10</f>
         <v>36.884715466000003</v>
       </c>
     </row>
@@ -1187,15 +1203,15 @@
         <v>35</v>
       </c>
       <c r="O17" s="1">
-        <f>10*9.96</f>
+        <f>0+10*9.96</f>
         <v>99.600000000000009</v>
       </c>
       <c r="P17" s="1">
-        <f>10*9.66</f>
+        <f>0+10*9.66</f>
         <v>96.6</v>
       </c>
       <c r="Q17" s="1">
-        <f>10*0.33295521/10+10*0.27425725/40</f>
+        <f>0+10*0.33295521/10+10*0.27425725/40</f>
         <v>0.4015195225</v>
       </c>
     </row>
@@ -1219,15 +1235,15 @@
         <v>35</v>
       </c>
       <c r="O18" s="1">
-        <f>20*7.33</f>
+        <f>0+20*7.33</f>
         <v>146.6</v>
       </c>
       <c r="P18" s="1">
-        <f>20*9.66</f>
+        <f>0+20*9.66</f>
         <v>193.2</v>
       </c>
       <c r="Q18" s="1">
-        <f>20*0.31538491/20+20*0.27425725/40</f>
+        <f>0+20*0.31538491/20+20*0.27425725/40</f>
         <v>0.45251353500000002</v>
       </c>
     </row>
@@ -1251,15 +1267,15 @@
         <v>35</v>
       </c>
       <c r="O19" s="1">
-        <f>10*7.96</f>
+        <f>0+10*7.96</f>
         <v>79.599999999999994</v>
       </c>
       <c r="P19" s="1">
-        <f>10*9.66</f>
+        <f>0+10*9.66</f>
         <v>96.6</v>
       </c>
       <c r="Q19" s="1">
-        <f>10*0.33285321/10+10*0.27425725/40</f>
+        <f>0+10*0.33285321/10+10*0.27425725/40</f>
         <v>0.40141752250000001</v>
       </c>
     </row>
@@ -1283,15 +1299,15 @@
         <v>35</v>
       </c>
       <c r="O20" s="1">
-        <f>60*6.08</f>
+        <f>0+60*6.08</f>
         <v>364.8</v>
       </c>
       <c r="P20" s="1">
-        <f>30*6.51+30*6.33</f>
+        <f>0+30*6.51+30*6.33</f>
         <v>385.2</v>
       </c>
       <c r="Q20" s="1">
-        <f>60*0.24525773/60+30*0.29325725/30+30*0.29325725/30</f>
+        <f>0+60*0.24525773/60+30*0.29325725/30+30*0.29325725/30</f>
         <v>0.83177223</v>
       </c>
     </row>
@@ -1315,15 +1331,15 @@
         <v>35</v>
       </c>
       <c r="O21" s="1">
-        <f>0.2*3521.55</f>
+        <f>0+0.2*3521.55</f>
         <v>704.31000000000006</v>
       </c>
       <c r="P21" s="1">
-        <f>0.2*3333.71</f>
+        <f>0+0.2*3333.71</f>
         <v>666.74200000000008</v>
       </c>
       <c r="Q21" s="1">
-        <f>0.2*0.353913031/0.2+0.2*0.35029725/0.2</f>
+        <f>0+0.2*0.353913031/0.2+0.2*0.35029725/0.2</f>
         <v>0.70421028099999994</v>
       </c>
     </row>
@@ -1347,15 +1363,15 @@
         <v>35</v>
       </c>
       <c r="O22" s="1">
-        <f>30*18.59</f>
+        <f>0+30*18.59</f>
         <v>557.70000000000005</v>
       </c>
       <c r="P22" s="1">
-        <f>10*25.5+20*25.06</f>
+        <f>0+10*25.5+20*25.06</f>
         <v>756.2</v>
       </c>
       <c r="Q22" s="1">
-        <f>30*0.29967152/30+10*0.33125725/10+20*0.31225725/20</f>
+        <f>0+30*0.29967152/30+10*0.33125725/10+20*0.31225725/20</f>
         <v>0.94318601999999996</v>
       </c>
     </row>
@@ -1379,15 +1395,15 @@
         <v>35</v>
       </c>
       <c r="O23" s="1">
-        <f>60*1.79</f>
+        <f>0+60*1.79</f>
         <v>107.4</v>
       </c>
       <c r="P23" s="1">
-        <f>60*4.11</f>
+        <f>0+60*4.11</f>
         <v>246.60000000000002</v>
       </c>
       <c r="Q23" s="1">
-        <f>60*0.505060183/370+60*0.45225725/60</f>
+        <f>0+60*0.505060183/370+60*0.45225725/60</f>
         <v>0.53415890129729726</v>
       </c>
     </row>
@@ -1411,15 +1427,15 @@
         <v>35</v>
       </c>
       <c r="O24" s="1">
-        <f>80*1.79</f>
+        <f>0+80*1.79</f>
         <v>143.19999999999999</v>
       </c>
       <c r="P24" s="1">
-        <f>80*3.81</f>
+        <f>0+80*3.81</f>
         <v>304.8</v>
       </c>
       <c r="Q24" s="1">
-        <f>80*0.505060183/370+80*0.19825725/80</f>
+        <f>0+80*0.505060183/370+80*0.19825725/80</f>
         <v>0.30745945172972972</v>
       </c>
     </row>
@@ -1443,15 +1459,15 @@
         <v>35</v>
       </c>
       <c r="O25" s="1">
-        <f>50*1.79</f>
+        <f>0+50*1.79</f>
         <v>89.5</v>
       </c>
       <c r="P25" s="1">
-        <f>50*4.13</f>
+        <f>0+50*4.13</f>
         <v>206.5</v>
       </c>
       <c r="Q25" s="1">
-        <f>50*0.505060183/370+50*0.25525725/50</f>
+        <f>0+50*0.505060183/370+50*0.25525725/50</f>
         <v>0.32350862608108111</v>
       </c>
     </row>
@@ -1475,15 +1491,15 @@
         <v>35</v>
       </c>
       <c r="O26" s="1">
-        <f>30*1.79</f>
+        <f>0+30*1.79</f>
         <v>53.7</v>
       </c>
       <c r="P26" s="1">
-        <f>30*3.41</f>
+        <f>0+30*3.41</f>
         <v>102.30000000000001</v>
       </c>
       <c r="Q26" s="1">
-        <f>30*0.505060183/370+30*0.29325725/30</f>
+        <f>0+30*0.505060183/370+30*0.29325725/30</f>
         <v>0.33420807564864868</v>
       </c>
     </row>
@@ -1507,15 +1523,15 @@
         <v>35</v>
       </c>
       <c r="O27" s="1">
-        <f>50*1.79</f>
+        <f>0+50*1.79</f>
         <v>89.5</v>
       </c>
       <c r="P27" s="1">
-        <f>50*3.21</f>
+        <f>0+50*3.21</f>
         <v>160.5</v>
       </c>
       <c r="Q27" s="1">
-        <f>50*0.505060183/370+50*0.25525725/50</f>
+        <f>0+50*0.505060183/370+50*0.25525725/50</f>
         <v>0.32350862608108111</v>
       </c>
     </row>
@@ -1539,15 +1555,15 @@
         <v>35</v>
       </c>
       <c r="O28" s="1">
-        <f>100*1.79</f>
+        <f>0+100*1.79</f>
         <v>179</v>
       </c>
       <c r="P28" s="1">
-        <f>50*2.66+50*2.66</f>
+        <f>0+50*2.66+50*2.66</f>
         <v>266</v>
       </c>
       <c r="Q28" s="1">
-        <f>100*0.505060183/370+50*0.25525725/50+50*0.25525725/50</f>
+        <f>0+100*0.505060183/370+50*0.25525725/50+50*0.25525725/50</f>
         <v>0.64701725216216222</v>
       </c>
     </row>
@@ -1571,15 +1587,15 @@
         <v>35</v>
       </c>
       <c r="O29" s="1">
-        <f>1*89.66</f>
+        <f>0+1*89.66</f>
         <v>89.66</v>
       </c>
       <c r="P29" s="1">
-        <f>1*88.66</f>
+        <f>0+1*88.66</f>
         <v>88.66</v>
       </c>
       <c r="Q29" s="1">
-        <f>1*0.349833516/1+1*0.34825725/2</f>
+        <f>0+1*0.349833516/1+1*0.34825725/2</f>
         <v>0.52396214100000005</v>
       </c>
     </row>
@@ -1603,15 +1619,15 @@
         <v>35</v>
       </c>
       <c r="O30" s="1">
-        <f>1*77.91</f>
+        <f>0+1*77.91</f>
         <v>77.91</v>
       </c>
       <c r="P30" s="1">
-        <f>1*88.66</f>
+        <f>0+1*88.66</f>
         <v>88.66</v>
       </c>
       <c r="Q30" s="1">
-        <f>1*0.355406273/3+1*0.34825725/2</f>
+        <f>0+1*0.355406273/3+1*0.34825725/2</f>
         <v>0.29259738266666668</v>
       </c>
     </row>
@@ -1635,15 +1651,15 @@
         <v>35</v>
       </c>
       <c r="O31" s="1">
-        <f>2*77.91</f>
+        <f>0+2*77.91</f>
         <v>155.82</v>
       </c>
       <c r="P31" s="1">
-        <f>2*75.61</f>
+        <f>0+2*75.61</f>
         <v>151.22</v>
       </c>
       <c r="Q31" s="1">
-        <f>2*0.355406273/3+2*0.35065725/2</f>
+        <f>0+2*0.355406273/3+2*0.35065725/2</f>
         <v>0.58759476533333332</v>
       </c>
     </row>
@@ -1667,15 +1683,15 @@
         <v>35</v>
       </c>
       <c r="O32" s="1">
-        <f>2*58</f>
+        <f>0+2*58</f>
         <v>116</v>
       </c>
       <c r="P32" s="1">
-        <f>2*53.06</f>
+        <f>0+2*53.06</f>
         <v>106.12</v>
       </c>
       <c r="Q32" s="1">
-        <f>2*0.35348685/2+2*0.34525725/5</f>
+        <f>0+2*0.35348685/2+2*0.34525725/5</f>
         <v>0.49158975000000005</v>
       </c>
     </row>
@@ -1699,15 +1715,15 @@
         <v>35</v>
       </c>
       <c r="O33" s="1">
-        <f>10*7.55+10*7.875+10*7.862</f>
+        <f>0+10*7.55+10*7.875+10*7.862</f>
         <v>232.87</v>
       </c>
       <c r="P33" s="1">
-        <f>15*6.77+15*6.67</f>
+        <f>0+15*6.77+15*6.67</f>
         <v>201.6</v>
       </c>
       <c r="Q33" s="1">
-        <f>10*0.3638323/10+10*0.353848875/10+10*0.353848212/10+15*0.36225725/15+15*0.33525725/15</f>
+        <f>0+10*0.3638323/10+10*0.353848875/10+10*0.353848212/10+15*0.36225725/15+15*0.33525725/15</f>
         <v>1.7690438869999998</v>
       </c>
     </row>
@@ -1731,15 +1747,15 @@
         <v>35</v>
       </c>
       <c r="O34" s="1">
-        <f>25*8.79+25*10.43</f>
+        <f>0+25*8.79+25*10.43</f>
         <v>480.5</v>
       </c>
       <c r="P34" s="1">
-        <f>50*7.07</f>
+        <f>0+50*7.07</f>
         <v>353.5</v>
       </c>
       <c r="Q34" s="1">
-        <f>25*0.329352975/25+25*0.329562075/25+50*0.49025725/50</f>
+        <f>0+25*0.329352975/25+25*0.329562075/25+50*0.49025725/50</f>
         <v>1.1491722999999998</v>
       </c>
     </row>
@@ -1763,15 +1779,15 @@
         <v>35</v>
       </c>
       <c r="O35" s="1">
-        <f>5*17.36+5*17.66</f>
+        <f>0+5*17.36+5*17.66</f>
         <v>175.1</v>
       </c>
       <c r="P35" s="1">
-        <f>10*12.71</f>
+        <f>0+10*12.71</f>
         <v>127.10000000000001</v>
       </c>
       <c r="Q35" s="1">
-        <f>5*0.35229493/5+5*0.34630258/5+10*0.34025725/10</f>
+        <f>0+5*0.35229493/5+5*0.34630258/5+10*0.34025725/10</f>
         <v>1.03885476</v>
       </c>
     </row>
@@ -1795,15 +1811,15 @@
         <v>35</v>
       </c>
       <c r="O36" s="1">
-        <f>5*19.66</f>
+        <f>0+5*19.66</f>
         <v>98.3</v>
       </c>
       <c r="P36" s="1">
-        <f>5*15.78</f>
+        <f>0+5*15.78</f>
         <v>78.899999999999991</v>
       </c>
       <c r="Q36" s="1">
-        <f>5*0.34635358/5+5*0.34025725/10</f>
+        <f>0+5*0.34635358/5+5*0.34025725/10</f>
         <v>0.51648220499999997</v>
       </c>
     </row>
@@ -1827,15 +1843,15 @@
         <v>35</v>
       </c>
       <c r="O37" s="1">
-        <f>10*13.49</f>
+        <f>0+10*13.49</f>
         <v>134.9</v>
       </c>
       <c r="P37" s="1">
-        <f>10*26.12</f>
+        <f>0+10*26.12</f>
         <v>261.2</v>
       </c>
       <c r="Q37" s="1">
-        <f>10*0.314301029/21+10*0.36725725/10</f>
+        <f>0+10*0.314301029/21+10*0.36725725/10</f>
         <v>0.51692440666666672</v>
       </c>
     </row>
@@ -1859,15 +1875,15 @@
         <v>35</v>
       </c>
       <c r="O38" s="1">
-        <f>8*13.49</f>
+        <f>0+8*13.49</f>
         <v>107.92</v>
       </c>
       <c r="P38" s="1">
-        <f>8*25.66</f>
+        <f>0+8*25.66</f>
         <v>205.28</v>
       </c>
       <c r="Q38" s="1">
-        <f>8*0.314301029/21+8*0.33505725/8</f>
+        <f>0+8*0.314301029/21+8*0.33505725/8</f>
         <v>0.45479097533333329</v>
       </c>
     </row>
@@ -1891,15 +1907,15 @@
         <v>35</v>
       </c>
       <c r="O39" s="1">
-        <f>3*13.49+7*14.33</f>
+        <f>0+3*13.49+7*14.33</f>
         <v>140.78</v>
       </c>
       <c r="P39" s="1">
-        <f>10*17.06</f>
+        <f>0+10*17.06</f>
         <v>170.6</v>
       </c>
       <c r="Q39" s="1">
-        <f>3*0.314301029/21+7*0.33317808/10+10*0.33125725/10</f>
+        <f>0+3*0.314301029/21+7*0.33317808/10+10*0.33125725/10</f>
         <v>0.60938205300000003</v>
       </c>
     </row>
@@ -1923,15 +1939,15 @@
         <v>35</v>
       </c>
       <c r="O40" s="1">
-        <f>3*14.33</f>
+        <f>0+3*14.33</f>
         <v>42.99</v>
       </c>
       <c r="P40" s="1">
-        <f>3*16.66</f>
+        <f>0+3*16.66</f>
         <v>49.980000000000004</v>
       </c>
       <c r="Q40" s="1">
-        <f>3*0.33317808/10+3*0.33125725/10</f>
+        <f>0+3*0.33317808/10+3*0.33125725/10</f>
         <v>0.199330599</v>
       </c>
     </row>
@@ -1955,15 +1971,15 @@
         <v>35</v>
       </c>
       <c r="O41" s="1">
-        <f>32*8.832</f>
+        <f>0+32*8.832</f>
         <v>282.62400000000002</v>
       </c>
       <c r="P41" s="1">
-        <f>7*16.66+25*14.06</f>
+        <f>0+7*16.66+25*14.06</f>
         <v>468.12</v>
       </c>
       <c r="Q41" s="1">
-        <f>32*0.361906632/32+7*0.33125725/10+25*0.30275725/25</f>
+        <f>0+32*0.361906632/32+7*0.33125725/10+25*0.30275725/25</f>
         <v>0.896543957</v>
       </c>
     </row>
@@ -1987,15 +2003,15 @@
         <v>35</v>
       </c>
       <c r="O42" s="1">
-        <f>80*5.58</f>
+        <f>0+80*5.58</f>
         <v>446.4</v>
       </c>
       <c r="P42" s="1">
-        <f>30*6.99+50*6.28</f>
+        <f>0+30*6.99+50*6.28</f>
         <v>523.70000000000005</v>
       </c>
       <c r="Q42" s="1">
-        <f>80*0.21005389/80+30*0.29325725/30+50*0.43525725/50</f>
+        <f>0+80*0.21005389/80+30*0.29325725/30+50*0.43525725/50</f>
         <v>0.93856839000000014</v>
       </c>
     </row>
@@ -2019,15 +2035,15 @@
         <v>35</v>
       </c>
       <c r="O43" s="1">
-        <f>1*239.02+1*258.92</f>
+        <f>0+1*239.02+1*258.92</f>
         <v>497.94000000000005</v>
       </c>
       <c r="P43" s="1">
-        <f>1*306.7+1*300.11</f>
+        <f>0+1*306.7+1*300.11</f>
         <v>606.80999999999995</v>
       </c>
       <c r="Q43" s="1">
-        <f>1*0.349695252/1+1*0.349796742/1+1*0.35195725/1+1*0.34645725/2</f>
+        <f>0+1*0.349695252/1+1*0.349796742/1+1*0.35195725/1+1*0.34645725/2</f>
         <v>1.224677869</v>
       </c>
     </row>
@@ -2051,15 +2067,15 @@
         <v>35</v>
       </c>
       <c r="O44" s="1">
-        <f>1*249.98</f>
+        <f>0+1*249.98</f>
         <v>249.98</v>
       </c>
       <c r="P44" s="1">
-        <f>1*300.11</f>
+        <f>0+1*300.11</f>
         <v>300.11</v>
       </c>
       <c r="Q44" s="1">
-        <f>1*0.349751148/1+1*0.34645725/2</f>
+        <f>0+1*0.349751148/1+1*0.34645725/2</f>
         <v>0.52297977299999998</v>
       </c>
     </row>
@@ -2083,15 +2099,15 @@
         <v>35</v>
       </c>
       <c r="O45" s="1">
-        <f>10*19.59</f>
+        <f>0+10*19.59</f>
         <v>195.9</v>
       </c>
       <c r="P45" s="1">
-        <f>10*19.13</f>
+        <f>0+10*19.13</f>
         <v>191.29999999999998</v>
       </c>
       <c r="Q45" s="1">
-        <f>10*0.33444634/10+10*0.33225725/10</f>
+        <f>0+10*0.33444634/10+10*0.33225725/10</f>
         <v>0.66670359000000001</v>
       </c>
     </row>
@@ -2115,15 +2131,15 @@
         <v>35</v>
       </c>
       <c r="O46" s="1">
-        <f>3*28.33</f>
+        <f>0+3*28.33</f>
         <v>84.99</v>
       </c>
       <c r="P46" s="1">
-        <f>3*26.25</f>
+        <f>0+3*26.25</f>
         <v>78.75</v>
       </c>
       <c r="Q46" s="1">
-        <f>3*0.345347699/3+3*0.35875725/5</f>
+        <f>0+3*0.345347699/3+3*0.35875725/5</f>
         <v>0.56060204899999999</v>
       </c>
     </row>
@@ -2147,15 +2163,15 @@
         <v>35</v>
       </c>
       <c r="O47" s="1">
-        <f>2*28.96</f>
+        <f>0+2*28.96</f>
         <v>57.92</v>
       </c>
       <c r="P47" s="1">
-        <f>2*26.25</f>
+        <f>0+2*26.25</f>
         <v>52.5</v>
       </c>
       <c r="Q47" s="1">
-        <f>2*0.346990642/2+2*0.35875725/5</f>
+        <f>0+2*0.346990642/2+2*0.35875725/5</f>
         <v>0.49049354200000006</v>
       </c>
     </row>
@@ -2179,15 +2195,15 @@
         <v>35</v>
       </c>
       <c r="O48" s="1">
-        <f>3*119.33</f>
+        <f>0+3*119.33</f>
         <v>357.99</v>
       </c>
       <c r="P48" s="1">
-        <f>3*119.13</f>
+        <f>0+3*119.13</f>
         <v>357.39</v>
       </c>
       <c r="Q48" s="1">
-        <f>3*0.346739999/3+3*0.33315725/9</f>
+        <f>0+3*0.346739999/3+3*0.33315725/9</f>
         <v>0.45779241566666673</v>
       </c>
     </row>
@@ -2211,15 +2227,15 @@
         <v>35</v>
       </c>
       <c r="O49" s="1">
-        <f>6*120.04</f>
+        <f>0+6*120.04</f>
         <v>720.24</v>
       </c>
       <c r="P49" s="1">
-        <f>6*119.13</f>
+        <f>0+6*119.13</f>
         <v>714.78</v>
       </c>
       <c r="Q49" s="1">
-        <f>6*0.364844474/6+6*0.33315725/9</f>
+        <f>0+6*0.364844474/6+6*0.33315725/9</f>
         <v>0.58694930733333339</v>
       </c>
     </row>
@@ -2243,15 +2259,15 @@
         <v>35</v>
       </c>
       <c r="O50" s="1">
-        <f>5*41.49+5*49.86</f>
+        <f>0+5*41.49+5*49.86</f>
         <v>456.75</v>
       </c>
       <c r="P50" s="1">
-        <f>10*37.33</f>
+        <f>0+10*37.33</f>
         <v>373.29999999999995</v>
       </c>
       <c r="Q50" s="1">
-        <f>5*0.360410245/5+5*0.34262368/5+10*0.33125725/10</f>
+        <f>0+5*0.360410245/5+5*0.34262368/5+10*0.33125725/10</f>
         <v>1.0342911749999999</v>
       </c>
     </row>
@@ -2275,15 +2291,15 @@
         <v>35</v>
       </c>
       <c r="O51" s="1">
-        <f>3*49.96+2*49.96</f>
+        <f>0+3*49.96+2*49.96</f>
         <v>249.8</v>
       </c>
       <c r="P51" s="1">
-        <f>5*36.03</f>
+        <f>0+5*36.03</f>
         <v>180.15</v>
       </c>
       <c r="Q51" s="1">
-        <f>3*0.345678638/3+2*0.347204842/2+5*0.34075725/5</f>
+        <f>0+3*0.345678638/3+2*0.347204842/2+5*0.34075725/5</f>
         <v>1.0336407300000001</v>
       </c>
     </row>
@@ -2307,15 +2323,15 @@
         <v>35</v>
       </c>
       <c r="O52" s="1">
-        <f>3*49.66</f>
+        <f>0+3*49.66</f>
         <v>148.97999999999999</v>
       </c>
       <c r="P52" s="1">
-        <f>3*40.33</f>
+        <f>0+3*40.33</f>
         <v>120.99</v>
       </c>
       <c r="Q52" s="1">
-        <f>3*0.345674048/3+3*0.34455725/3</f>
+        <f>0+3*0.345674048/3+3*0.34455725/3</f>
         <v>0.69023129800000005</v>
       </c>
     </row>
@@ -2339,15 +2355,15 @@
         <v>35</v>
       </c>
       <c r="O53" s="1">
-        <f>18*18.18</f>
+        <f>0+18*18.18</f>
         <v>327.24</v>
       </c>
       <c r="P53" s="1">
-        <f>3*17.81+5*18.06+10*17.06</f>
+        <f>0+3*17.81+5*18.06+10*17.06</f>
         <v>314.33</v>
       </c>
       <c r="Q53" s="1">
-        <f>18*0.321668174/18+3*0.34455725/3+5*0.34075725/5+10*0.33125725/10</f>
+        <f>0+18*0.321668174/18+3*0.34455725/3+5*0.34075725/5+10*0.33125725/10</f>
         <v>1.338239924</v>
       </c>
     </row>
@@ -2371,15 +2387,15 @@
         <v>35</v>
       </c>
       <c r="O54" s="1">
-        <f>4*22.33+8*24.16+5*24.96</f>
+        <f>0+4*22.33+8*24.16+5*24.96</f>
         <v>407.40000000000003</v>
       </c>
       <c r="P54" s="1">
-        <f>10*18.01+7*20.66</f>
+        <f>0+10*18.01+7*20.66</f>
         <v>324.72000000000003</v>
       </c>
       <c r="Q54" s="1">
-        <f>4*0.347188782/4+8*0.348194978/8+5*0.34648873/5+10*0.34025725/10+7*0.34025725/10</f>
+        <f>0+4*0.347188782/4+8*0.348194978/8+5*0.34648873/5+10*0.34025725/10+7*0.34025725/10</f>
         <v>1.6203098149999999</v>
       </c>
     </row>
@@ -2403,15 +2419,15 @@
         <v>35</v>
       </c>
       <c r="O55" s="1">
-        <f>3*29.96</f>
+        <f>0+3*29.96</f>
         <v>89.88</v>
       </c>
       <c r="P55" s="1">
-        <f>3*20.66</f>
+        <f>0+3*20.66</f>
         <v>61.980000000000004</v>
       </c>
       <c r="Q55" s="1">
-        <f>3*0.348072638/3+3*0.34025725/10</f>
+        <f>0+3*0.348072638/3+3*0.34025725/10</f>
         <v>0.4501498129999999</v>
       </c>
     </row>
@@ -2435,15 +2451,15 @@
         <v>35</v>
       </c>
       <c r="O56" s="1">
-        <f>10*18.41</f>
+        <f>0+10*18.41</f>
         <v>184.1</v>
       </c>
       <c r="P56" s="1">
-        <f>10*24.05</f>
+        <f>0+10*24.05</f>
         <v>240.5</v>
       </c>
       <c r="Q56" s="1">
-        <f>10*0.338450615/15+10*0.34025725/10</f>
+        <f>0+10*0.338450615/15+10*0.34025725/10</f>
         <v>0.56589099333333337</v>
       </c>
     </row>
@@ -2467,15 +2483,15 @@
         <v>35</v>
       </c>
       <c r="O57" s="1">
-        <f>5*18.41+10*19.56</f>
+        <f>0+5*18.41+10*19.56</f>
         <v>287.64999999999998</v>
       </c>
       <c r="P57" s="1">
-        <f>15*21.78</f>
+        <f>0+15*21.78</f>
         <v>326.70000000000005</v>
       </c>
       <c r="Q57" s="1">
-        <f>5*0.338450615/15+10*0.32244481/10+15*0.37425725/20</f>
+        <f>0+5*0.338450615/15+10*0.32244481/10+15*0.37425725/20</f>
         <v>0.71595461916666658</v>
       </c>
     </row>
@@ -2499,15 +2515,15 @@
         <v>35</v>
       </c>
       <c r="O58" s="1">
-        <f>5*20.48</f>
+        <f>0+5*20.48</f>
         <v>102.4</v>
       </c>
       <c r="P58" s="1">
-        <f>5*21.78</f>
+        <f>0+5*21.78</f>
         <v>108.9</v>
       </c>
       <c r="Q58" s="1">
-        <f>5*0.36449173/10+5*0.37425725/20</f>
+        <f>0+5*0.36449173/10+5*0.37425725/20</f>
         <v>0.27581017750000003</v>
       </c>
     </row>
@@ -2531,15 +2547,15 @@
         <v>35</v>
       </c>
       <c r="O59" s="1">
-        <f>5*20.48</f>
+        <f>0+5*20.48</f>
         <v>102.4</v>
       </c>
       <c r="P59" s="1">
-        <f>5*20.61</f>
+        <f>0+5*20.61</f>
         <v>103.05</v>
       </c>
       <c r="Q59" s="1">
-        <f>5*0.36449173/10+5*0.34025725/10</f>
+        <f>0+5*0.36449173/10+5*0.34025725/10</f>
         <v>0.35237448999999998</v>
       </c>
     </row>
@@ -2563,15 +2579,15 @@
         <v>35</v>
       </c>
       <c r="O60" s="1">
-        <f>100*0.7596</f>
+        <f>0+100*0.7596</f>
         <v>75.960000000000008</v>
       </c>
       <c r="P60" s="1">
-        <f>100*0.7033</f>
+        <f>0+100*0.7033</f>
         <v>70.33</v>
       </c>
       <c r="Q60" s="1">
-        <f>100*0.379544646/100+100*0.7325145/200</f>
+        <f>0+100*0.379544646/100+100*0.7325145/200</f>
         <v>0.74580189600000002</v>
       </c>
     </row>
@@ -2595,15 +2611,15 @@
         <v>35</v>
       </c>
       <c r="O61" s="1">
-        <f>100*0.7996</f>
+        <f>0+100*0.7996</f>
         <v>79.959999999999994</v>
       </c>
       <c r="P61" s="1">
-        <f>100*0.7033</f>
+        <f>0+100*0.7033</f>
         <v>70.33</v>
       </c>
       <c r="Q61" s="1">
-        <f>100*0.379565046/100+100*0.7325145/200</f>
+        <f>0+100*0.379565046/100+100*0.7325145/200</f>
         <v>0.74582229600000005</v>
       </c>
     </row>
@@ -2627,15 +2643,15 @@
         <v>35</v>
       </c>
       <c r="O62" s="1">
-        <f>100*0.8137+100*0.866+100*0.9696</f>
+        <f>0+100*0.8137+100*0.866+100*0.9696</f>
         <v>264.93</v>
       </c>
       <c r="P62" s="1">
-        <f>200*0.563+100*0.481</f>
+        <f>0+200*0.563+100*0.481</f>
         <v>160.69999999999999</v>
       </c>
       <c r="Q62" s="1">
-        <f>100*0.382572237/100+100*0.43259891/100+100*0.379651746/100+200*0.7345145/200+100*0.36725725/100</f>
+        <f>0+100*0.382572237/100+100*0.43259891/100+100*0.379651746/100+200*0.7345145/200+100*0.36725725/100</f>
         <v>2.2965946429999997</v>
       </c>
     </row>
@@ -2659,15 +2675,15 @@
         <v>35</v>
       </c>
       <c r="O63" s="1">
-        <f>10*15.96+15*16.09</f>
+        <f>0+10*15.96+15*16.09</f>
         <v>400.95000000000005</v>
       </c>
       <c r="P63" s="1">
-        <f>15*16.11+10*15.13</f>
+        <f>0+15*16.11+10*15.13</f>
         <v>392.95</v>
       </c>
       <c r="Q63" s="1">
-        <f>10*0.33326121/10+15*0.378773135/15+15*0.35325725/15+10*0.33225725/10</f>
+        <f>0+10*0.33326121/10+15*0.378773135/15+15*0.35325725/15+10*0.33225725/10</f>
         <v>1.397548845</v>
       </c>
     </row>
@@ -2691,15 +2707,15 @@
         <v>35</v>
       </c>
       <c r="O64" s="1">
-        <f>5*97.86</f>
+        <f>0+5*97.86</f>
         <v>489.3</v>
       </c>
       <c r="P64" s="1">
-        <f>5*97.66</f>
+        <f>0+5*97.66</f>
         <v>488.29999999999995</v>
       </c>
       <c r="Q64" s="1">
-        <f>5*0.36734768/5+5*0.35225725/10</f>
+        <f>0+5*0.36734768/5+5*0.35225725/10</f>
         <v>0.54347630499999999</v>
       </c>
     </row>
@@ -2723,15 +2739,15 @@
         <v>35</v>
       </c>
       <c r="O65" s="1">
-        <f>5*96.61</f>
+        <f>0+5*96.61</f>
         <v>483.05</v>
       </c>
       <c r="P65" s="1">
-        <f>5*97.66</f>
+        <f>0+5*97.66</f>
         <v>488.29999999999995</v>
       </c>
       <c r="Q65" s="1">
-        <f>5*0.33837436/10+5*0.35225725/10</f>
+        <f>0+5*0.33837436/10+5*0.35225725/10</f>
         <v>0.34531580500000003</v>
       </c>
     </row>
@@ -2755,15 +2771,15 @@
         <v>35</v>
       </c>
       <c r="O66" s="1">
-        <f>5*96.61</f>
+        <f>0+5*96.61</f>
         <v>483.05</v>
       </c>
       <c r="P66" s="1">
-        <f>5*97.33</f>
+        <f>0+5*97.33</f>
         <v>486.65</v>
       </c>
       <c r="Q66" s="1">
-        <f>5*0.33837436/10+5*0.34125725/5</f>
+        <f>0+5*0.33837436/10+5*0.34125725/5</f>
         <v>0.51044442999999995</v>
       </c>
     </row>
@@ -2787,15 +2803,15 @@
         <v>35</v>
       </c>
       <c r="O67" s="1">
-        <f>50*1.79</f>
+        <f>0+50*1.79</f>
         <v>89.5</v>
       </c>
       <c r="P67" s="1">
-        <f>50*6.01</f>
+        <f>0+50*6.01</f>
         <v>300.5</v>
       </c>
       <c r="Q67" s="1">
-        <f>50*0.259605225/150+50*0.41025725/50</f>
+        <f>0+50*0.259605225/150+50*0.41025725/50</f>
         <v>0.49679232500000003</v>
       </c>
     </row>
@@ -2819,15 +2835,15 @@
         <v>35</v>
       </c>
       <c r="O68" s="1">
-        <f>100*1.79</f>
+        <f>0+100*1.79</f>
         <v>179</v>
       </c>
       <c r="P68" s="1">
-        <f>100*3.85</f>
+        <f>0+100*3.85</f>
         <v>385</v>
       </c>
       <c r="Q68" s="1">
-        <f>100*0.259605225/150+100*0.21025725/100</f>
+        <f>0+100*0.259605225/150+100*0.21025725/100</f>
         <v>0.38332739999999998</v>
       </c>
     </row>
@@ -2851,15 +2867,15 @@
         <v>35</v>
       </c>
       <c r="O69" s="1">
-        <f>100*0.875</f>
+        <f>0+100*0.875</f>
         <v>87.5</v>
       </c>
       <c r="P69" s="1">
-        <f>100*3.68</f>
+        <f>0+100*3.68</f>
         <v>368</v>
       </c>
       <c r="Q69" s="1">
-        <f>100*1.6728105/300+100*0.25025725/100</f>
+        <f>0+100*1.6728105/300+100*0.25025725/100</f>
         <v>0.80786075000000002</v>
       </c>
     </row>
@@ -2883,15 +2899,15 @@
         <v>35</v>
       </c>
       <c r="O70" s="1">
-        <f>200*0.875</f>
+        <f>0+200*0.875</f>
         <v>175</v>
       </c>
       <c r="P70" s="1">
-        <f>100*2.33+100*1.99</f>
+        <f>0+100*2.33+100*1.99</f>
         <v>432</v>
       </c>
       <c r="Q70" s="1">
-        <f>200*1.6728105/300+100*0.16025725/100+100*0.52025725/100</f>
+        <f>0+200*1.6728105/300+100*0.16025725/100+100*0.52025725/100</f>
         <v>1.7957215</v>
       </c>
     </row>
@@ -2915,15 +2931,15 @@
         <v>35</v>
       </c>
       <c r="O71" s="1">
-        <f>10*7.96</f>
+        <f>0+10*7.96</f>
         <v>79.599999999999994</v>
       </c>
       <c r="P71" s="1">
-        <f>10*7.23</f>
+        <f>0+10*7.23</f>
         <v>72.300000000000011</v>
       </c>
       <c r="Q71" s="1">
-        <f>10*0.33285321/10+10*0.29325725/30</f>
+        <f>0+10*0.33285321/10+10*0.29325725/30</f>
         <v>0.43060562666666669</v>
       </c>
     </row>
@@ -2947,15 +2963,15 @@
         <v>35</v>
       </c>
       <c r="O72" s="1">
-        <f>10*7.83+10*7.96</f>
+        <f>0+10*7.83+10*7.96</f>
         <v>157.89999999999998</v>
       </c>
       <c r="P72" s="1">
-        <f>20*7.23</f>
+        <f>0+20*7.23</f>
         <v>144.60000000000002</v>
       </c>
       <c r="Q72" s="1">
-        <f>10*0.33784658/10+10*0.33285321/10+20*0.29325725/30</f>
+        <f>0+10*0.33784658/10+10*0.33285321/10+20*0.29325725/30</f>
         <v>0.86620462333333337</v>
       </c>
     </row>
@@ -2979,15 +2995,15 @@
         <v>35</v>
       </c>
       <c r="O73" s="1">
-        <f>5*87.97</f>
+        <f>0+5*87.97</f>
         <v>439.85</v>
       </c>
       <c r="P73" s="1">
-        <f>5*87</f>
+        <f>0+5*87</f>
         <v>435</v>
       </c>
       <c r="Q73" s="1">
-        <f>5*0.357095485/5+5*0.35665725/8</f>
+        <f>0+5*0.357095485/5+5*0.35665725/8</f>
         <v>0.58000626624999996</v>
       </c>
     </row>
@@ -3011,15 +3027,15 @@
         <v>35</v>
       </c>
       <c r="O74" s="1">
-        <f>3*87.355</f>
+        <f>0+3*87.355</f>
         <v>262.065</v>
       </c>
       <c r="P74" s="1">
-        <f>3*87</f>
+        <f>0+3*87</f>
         <v>261</v>
       </c>
       <c r="Q74" s="1">
-        <f>3*0.354079802/5+3*0.35665725/8</f>
+        <f>0+3*0.354079802/5+3*0.35665725/8</f>
         <v>0.34619434994999998</v>
       </c>
     </row>
@@ -3043,15 +3059,15 @@
         <v>35</v>
       </c>
       <c r="O75" s="1">
-        <f>2*87.355+3*87.432</f>
+        <f>0+2*87.355+3*87.432</f>
         <v>437.00599999999997</v>
       </c>
       <c r="P75" s="1">
-        <f>5*87.81</f>
+        <f>0+5*87.81</f>
         <v>439.05</v>
       </c>
       <c r="Q75" s="1">
-        <f>2*0.354079802/5+3*0.356376476/8+5*0.34125725/5</f>
+        <f>0+2*0.354079802/5+3*0.356376476/8+5*0.34125725/5</f>
         <v>0.61653034930000006</v>
       </c>
     </row>
@@ -3075,15 +3091,15 @@
         <v>35</v>
       </c>
       <c r="O76" s="1">
-        <f>5*87.432</f>
+        <f>0+5*87.432</f>
         <v>437.16</v>
       </c>
       <c r="P76" s="1">
-        <f>5*87.08</f>
+        <f>0+5*87.08</f>
         <v>435.4</v>
       </c>
       <c r="Q76" s="1">
-        <f>5*0.356376476/8+5*0.34125725/5</f>
+        <f>0+5*0.356376476/8+5*0.34125725/5</f>
         <v>0.56399254750000005</v>
       </c>
     </row>
@@ -3107,15 +3123,15 @@
         <v>35</v>
       </c>
       <c r="O77" s="1">
-        <f>2*70.18</f>
+        <f>0+2*70.18</f>
         <v>140.36000000000001</v>
       </c>
       <c r="P77" s="1">
-        <f>2*70.82</f>
+        <f>0+2*70.82</f>
         <v>141.63999999999999</v>
       </c>
       <c r="Q77" s="1">
-        <f>2*0.351611086/2+2*0.34645725/2</f>
+        <f>0+2*0.351611086/2+2*0.34645725/2</f>
         <v>0.69806833599999996</v>
       </c>
     </row>
@@ -3139,15 +3155,15 @@
         <v>35</v>
       </c>
       <c r="O78" s="1">
-        <f>2*74.96</f>
+        <f>0+2*74.96</f>
         <v>149.91999999999999</v>
       </c>
       <c r="P78" s="1">
-        <f>2*63.06</f>
+        <f>0+2*63.06</f>
         <v>126.12</v>
       </c>
       <c r="Q78" s="1">
-        <f>2*0.347459842/2+2*0.34455725/3</f>
+        <f>0+2*0.347459842/2+2*0.34455725/3</f>
         <v>0.57716467533333338</v>
       </c>
     </row>
@@ -3171,15 +3187,15 @@
         <v>35</v>
       </c>
       <c r="O79" s="1">
-        <f>5*56.295</f>
+        <f>0+5*56.295</f>
         <v>281.47500000000002</v>
       </c>
       <c r="P79" s="1">
-        <f>5*55</f>
+        <f>0+5*55</f>
         <v>275</v>
       </c>
       <c r="Q79" s="1">
-        <f>5*0.356318295/10+5*0.35425725/5</f>
+        <f>0+5*0.356318295/10+5*0.35425725/5</f>
         <v>0.53241639750000003</v>
       </c>
     </row>
@@ -3203,15 +3219,15 @@
         <v>35</v>
       </c>
       <c r="O80" s="1">
-        <f>5*56.295</f>
+        <f>0+5*56.295</f>
         <v>281.47500000000002</v>
       </c>
       <c r="P80" s="1">
-        <f>5*50.06</f>
+        <f>0+5*50.06</f>
         <v>250.3</v>
       </c>
       <c r="Q80" s="1">
-        <f>5*0.356318295/10+5*0.34125725/5</f>
+        <f>0+5*0.356318295/10+5*0.34125725/5</f>
         <v>0.51941639750000002</v>
       </c>
     </row>
@@ -3235,15 +3251,15 @@
         <v>35</v>
       </c>
       <c r="O81" s="1">
-        <f>5*20.96+5*22.66</f>
+        <f>0+5*20.96+5*22.66</f>
         <v>218.10000000000002</v>
       </c>
       <c r="P81" s="1">
-        <f>10*20.66</f>
+        <f>0+10*20.66</f>
         <v>206.6</v>
       </c>
       <c r="Q81" s="1">
-        <f>5*0.34188673/5+5*0.34193008/5+10*0.33125725/10</f>
+        <f>0+5*0.34188673/5+5*0.34193008/5+10*0.33125725/10</f>
         <v>1.0150740600000001</v>
       </c>
     </row>
@@ -3267,15 +3283,15 @@
         <v>35</v>
       </c>
       <c r="O82" s="1">
-        <f>40*5.96</f>
+        <f>0+40*5.96</f>
         <v>238.4</v>
       </c>
       <c r="P82" s="1">
-        <f>40*7.34</f>
+        <f>0+40*7.34</f>
         <v>293.60000000000002</v>
       </c>
       <c r="Q82" s="1">
-        <f>40*0.31623309/40+40*0.41025725/50</f>
+        <f>0+40*0.31623309/40+40*0.41025725/50</f>
         <v>0.64443888999999999</v>
       </c>
     </row>
@@ -3299,15 +3315,15 @@
         <v>35</v>
       </c>
       <c r="O83" s="1">
-        <f>5*61.99+5*69.86</f>
+        <f>0+5*61.99+5*69.86</f>
         <v>659.25</v>
       </c>
       <c r="P83" s="1">
-        <f>5*55.06+5*53.06</f>
+        <f>0+5*55.06+5*53.06</f>
         <v>540.6</v>
       </c>
       <c r="Q83" s="1">
-        <f>5*0.356432995/5+5*0.34313368/5+5*0.35125725/5+5*0.34075725/5</f>
+        <f>0+5*0.356432995/5+5*0.34313368/5+5*0.35125725/5+5*0.34075725/5</f>
         <v>1.391581175</v>
       </c>
     </row>
@@ -3331,15 +3347,15 @@
         <v>35</v>
       </c>
       <c r="O84" s="1">
-        <f>5*74.91</f>
+        <f>0+5*74.91</f>
         <v>374.54999999999995</v>
       </c>
       <c r="P84" s="1">
-        <f>5*68.33</f>
+        <f>0+5*68.33</f>
         <v>341.65</v>
       </c>
       <c r="Q84" s="1">
-        <f>5*0.345762455/5+5*0.36525725/5</f>
+        <f>0+5*0.345762455/5+5*0.36525725/5</f>
         <v>0.711019705</v>
       </c>
     </row>
@@ -3363,15 +3379,15 @@
         <v>35</v>
       </c>
       <c r="O85" s="1">
-        <f>2*54.96+3*59.96</f>
+        <f>0+2*54.96+3*59.96</f>
         <v>289.8</v>
       </c>
       <c r="P85" s="1">
-        <f>5*54.06</f>
+        <f>0+5*54.06</f>
         <v>270.3</v>
       </c>
       <c r="Q85" s="1">
-        <f>2*0.349055842/2+3*0.348531638/3+5*0.34525725/5</f>
+        <f>0+2*0.349055842/2+3*0.348531638/3+5*0.34525725/5</f>
         <v>1.0428447300000001</v>
       </c>
     </row>
@@ -3395,15 +3411,15 @@
         <v>35</v>
       </c>
       <c r="O86" s="1">
-        <f>4*26.96+10*28</f>
+        <f>0+4*26.96+10*28</f>
         <v>387.84000000000003</v>
       </c>
       <c r="P86" s="1">
-        <f>4*24.6+10*24.41</f>
+        <f>0+4*24.6+10*24.41</f>
         <v>342.5</v>
       </c>
       <c r="Q86" s="1">
-        <f>4*0.343683234/4+10*0.36987525/10+4*0.34385725/4+10*0.33125725/10</f>
+        <f>0+4*0.343683234/4+10*0.36987525/10+4*0.34385725/4+10*0.33125725/10</f>
         <v>1.3886729840000001</v>
       </c>
     </row>
@@ -3427,15 +3443,15 @@
         <v>35</v>
       </c>
       <c r="O87" s="1">
-        <f>1*85.33</f>
+        <f>0+1*85.33</f>
         <v>85.33</v>
       </c>
       <c r="P87" s="1">
-        <f>1*108.205</f>
+        <f>0+1*108.205</f>
         <v>108.205</v>
       </c>
       <c r="Q87" s="1">
-        <f>1*0.335453263/11+1*0.35045725/1</f>
+        <f>0+1*0.335453263/11+1*0.35045725/1</f>
         <v>0.38095300118181818</v>
       </c>
     </row>
@@ -3459,15 +3475,15 @@
         <v>35</v>
       </c>
       <c r="O88" s="1">
-        <f>2*85.33</f>
+        <f>0+2*85.33</f>
         <v>170.66</v>
       </c>
       <c r="P88" s="1">
-        <f>2*107.06</f>
+        <f>0+2*107.06</f>
         <v>214.12</v>
       </c>
       <c r="Q88" s="1">
-        <f>2*0.335453263/11+2*0.34645725/2</f>
+        <f>0+2*0.335453263/11+2*0.34645725/2</f>
         <v>0.40744875236363637</v>
       </c>
     </row>
@@ -3491,15 +3507,15 @@
         <v>35</v>
       </c>
       <c r="O89" s="1">
-        <f>3*85.33</f>
+        <f>0+3*85.33</f>
         <v>255.99</v>
       </c>
       <c r="P89" s="1">
-        <f>3*99.75</f>
+        <f>0+3*99.75</f>
         <v>299.25</v>
       </c>
       <c r="Q89" s="1">
-        <f>3*0.335453263/11+3*0.35535725/3</f>
+        <f>0+3*0.335453263/11+3*0.35535725/3</f>
         <v>0.44684450354545457</v>
       </c>
     </row>
@@ -3523,15 +3539,15 @@
         <v>35</v>
       </c>
       <c r="O90" s="1">
-        <f>5*85.33</f>
+        <f>0+5*85.33</f>
         <v>426.65</v>
       </c>
       <c r="P90" s="1">
-        <f>2*86.06+3*82.54</f>
+        <f>0+2*86.06+3*82.54</f>
         <v>419.74</v>
       </c>
       <c r="Q90" s="1">
-        <f>5*0.335453263/11+2*0.34645725/2+3*0.35535725/3</f>
+        <f>0+5*0.335453263/11+2*0.34645725/2+3*0.35535725/3</f>
         <v>0.854293255909091</v>
       </c>
     </row>
@@ -3555,15 +3571,15 @@
         <v>35</v>
       </c>
       <c r="O91" s="1">
-        <f>3*70.97</f>
+        <f>0+3*70.97</f>
         <v>212.91</v>
       </c>
       <c r="P91" s="1">
-        <f>3*67.82</f>
+        <f>0+3*67.82</f>
         <v>203.45999999999998</v>
       </c>
       <c r="Q91" s="1">
-        <f>3*0.352300091/3+3*0.34725725/3</f>
+        <f>0+3*0.352300091/3+3*0.34725725/3</f>
         <v>0.699557341</v>
       </c>
     </row>
@@ -3587,15 +3603,15 @@
         <v>35</v>
       </c>
       <c r="O92" s="1">
-        <f>3*135.96</f>
+        <f>0+3*135.96</f>
         <v>407.88</v>
       </c>
       <c r="P92" s="1">
-        <f>3*130.33</f>
+        <f>0+3*130.33</f>
         <v>390.99</v>
       </c>
       <c r="Q92" s="1">
-        <f>3*0.347294438/3+3*0.34125725/5</f>
+        <f>0+3*0.347294438/3+3*0.34125725/5</f>
         <v>0.55204878800000001</v>
       </c>
     </row>
@@ -3619,15 +3635,15 @@
         <v>35</v>
       </c>
       <c r="O93" s="1">
-        <f>2*134.485</f>
+        <f>0+2*134.485</f>
         <v>268.97000000000003</v>
       </c>
       <c r="P93" s="1">
-        <f>2*130.33</f>
+        <f>0+2*130.33</f>
         <v>260.66000000000003</v>
       </c>
       <c r="Q93" s="1">
-        <f>2*0.352266997/2+2*0.34125725/5</f>
+        <f>0+2*0.352266997/2+2*0.34125725/5</f>
         <v>0.48876989700000006</v>
       </c>
     </row>
@@ -3651,15 +3667,15 @@
         <v>35</v>
       </c>
       <c r="O94" s="1">
-        <f>1*349.66</f>
+        <f>0+1*349.66</f>
         <v>349.66</v>
       </c>
       <c r="P94" s="1">
-        <f>1*286.06</f>
+        <f>0+1*286.06</f>
         <v>286.06</v>
       </c>
       <c r="Q94" s="1">
-        <f>1*0.350259516/1+1*0.34455725/3</f>
+        <f>0+1*0.350259516/1+1*0.34455725/3</f>
         <v>0.46511193266666667</v>
       </c>
     </row>
@@ -3683,15 +3699,15 @@
         <v>35</v>
       </c>
       <c r="O95" s="1">
-        <f>100*2.6</f>
+        <f>0+100*2.6</f>
         <v>260</v>
       </c>
       <c r="P95" s="1">
-        <f>100*2.36</f>
+        <f>0+100*2.36</f>
         <v>236</v>
       </c>
       <c r="Q95" s="1">
-        <f>100*0.26348325/100+100*0.25025725/100</f>
+        <f>0+100*0.26348325/100+100*0.25025725/100</f>
         <v>0.51374049999999993</v>
       </c>
     </row>
@@ -3715,15 +3731,15 @@
         <v>35</v>
       </c>
       <c r="O96" s="1">
-        <f>5*37.96+3*38.96</f>
+        <f>0+5*37.96+3*38.96</f>
         <v>306.68</v>
       </c>
       <c r="P96" s="1">
-        <f>8*40.73</f>
+        <f>0+8*40.73</f>
         <v>325.83999999999997</v>
       </c>
       <c r="Q96" s="1">
-        <f>5*0.35282023/5+3*0.34684573/5+8*0.35985725/8</f>
+        <f>0+5*0.35282023/5+3*0.34684573/5+8*0.35985725/8</f>
         <v>0.92078491800000006</v>
       </c>
     </row>
@@ -3747,15 +3763,15 @@
         <v>35</v>
       </c>
       <c r="O97" s="1">
-        <f>2*38.96</f>
+        <f>0+2*38.96</f>
         <v>77.92</v>
       </c>
       <c r="P97" s="1">
-        <f>2*36.13</f>
+        <f>0+2*36.13</f>
         <v>72.260000000000005</v>
       </c>
       <c r="Q97" s="1">
-        <f>2*0.34684573/5+2*0.34025725/10</f>
+        <f>0+2*0.34684573/5+2*0.34025725/10</f>
         <v>0.206789742</v>
       </c>
     </row>
@@ -3779,15 +3795,15 @@
         <v>35</v>
       </c>
       <c r="O98" s="1">
-        <f>5*40.25+5*41.96</f>
+        <f>0+5*40.25+5*41.96</f>
         <v>411.05</v>
       </c>
       <c r="P98" s="1">
-        <f>8*36.13+2*35.66</f>
+        <f>0+8*36.13+2*35.66</f>
         <v>360.36</v>
       </c>
       <c r="Q98" s="1">
-        <f>5*0.357878625/5+5*0.34692223/5+8*0.34025725/10+2*0.34525725/5</f>
+        <f>0+5*0.357878625/5+5*0.34692223/5+8*0.34025725/10+2*0.34525725/5</f>
         <v>1.1151095550000001</v>
       </c>
     </row>
@@ -3811,15 +3827,15 @@
         <v>35</v>
       </c>
       <c r="O99" s="1">
-        <f>3*35.96</f>
+        <f>0+3*35.96</f>
         <v>107.88</v>
       </c>
       <c r="P99" s="1">
-        <f>3*35.66</f>
+        <f>0+3*35.66</f>
         <v>106.97999999999999</v>
       </c>
       <c r="Q99" s="1">
-        <f>3*0.34328121/10+3*0.34525725/5</f>
+        <f>0+3*0.34328121/10+3*0.34525725/5</f>
         <v>0.31013871300000001</v>
       </c>
     </row>
@@ -3843,15 +3859,15 @@
         <v>35</v>
       </c>
       <c r="O100" s="1">
-        <f>6*35.96</f>
+        <f>0+6*35.96</f>
         <v>215.76</v>
       </c>
       <c r="P100" s="1">
-        <f>6*44.06</f>
+        <f>0+6*44.06</f>
         <v>264.36</v>
       </c>
       <c r="Q100" s="1">
-        <f>6*0.34328121/10+6*0.34425725/6</f>
+        <f>0+6*0.34328121/10+6*0.34425725/6</f>
         <v>0.55022597600000001</v>
       </c>
     </row>
@@ -3875,15 +3891,15 @@
         <v>35</v>
       </c>
       <c r="O101" s="1">
-        <f>1*35.96</f>
+        <f>0+1*35.96</f>
         <v>35.96</v>
       </c>
       <c r="P101" s="1">
-        <f>1*39.33</f>
+        <f>0+1*39.33</f>
         <v>39.33</v>
       </c>
       <c r="Q101" s="1">
-        <f>1*0.34328121/10+1*0.34025725/10</f>
+        <f>0+1*0.34328121/10+1*0.34025725/10</f>
         <v>6.8353845999999996E-2</v>
       </c>
     </row>
@@ -3907,15 +3923,15 @@
         <v>35</v>
       </c>
       <c r="O102" s="1">
-        <f>5*22.57</f>
+        <f>0+5*22.57</f>
         <v>112.85</v>
       </c>
       <c r="P102" s="1">
-        <f>5*30.66</f>
+        <f>0+5*30.66</f>
         <v>153.30000000000001</v>
       </c>
       <c r="Q102" s="1">
-        <f>5*0.325268855/15+5*0.34525725/5</f>
+        <f>0+5*0.325268855/15+5*0.34525725/5</f>
         <v>0.45368020166666667</v>
       </c>
     </row>
@@ -3939,15 +3955,15 @@
         <v>35</v>
       </c>
       <c r="O103" s="1">
-        <f>10*22.57</f>
+        <f>0+10*22.57</f>
         <v>225.7</v>
       </c>
       <c r="P103" s="1">
-        <f>10*26.06</f>
+        <f>0+10*26.06</f>
         <v>260.59999999999997</v>
       </c>
       <c r="Q103" s="1">
-        <f>10*0.325268855/15+10*0.34025725/10</f>
+        <f>0+10*0.325268855/15+10*0.34025725/10</f>
         <v>0.55710315333333338</v>
       </c>
     </row>
@@ -3971,15 +3987,15 @@
         <v>35</v>
       </c>
       <c r="O104" s="1">
-        <f>3*47.42</f>
+        <f>0+3*47.42</f>
         <v>142.26</v>
       </c>
       <c r="P104" s="1">
-        <f>2*43.81+1*42.77</f>
+        <f>0+2*43.81+1*42.77</f>
         <v>130.39000000000001</v>
       </c>
       <c r="Q104" s="1">
-        <f>3*0.354939776/3+2*0.34825725/2+1*0.35625725/5</f>
+        <f>0+3*0.354939776/3+2*0.34825725/2+1*0.35625725/5</f>
         <v>0.774448476</v>
       </c>
     </row>
@@ -4003,15 +4019,15 @@
         <v>35</v>
       </c>
       <c r="O105" s="1">
-        <f>2*49.96</f>
+        <f>0+2*49.96</f>
         <v>99.92</v>
       </c>
       <c r="P105" s="1">
-        <f>2*42.77</f>
+        <f>0+2*42.77</f>
         <v>85.54</v>
       </c>
       <c r="Q105" s="1">
-        <f>2*0.349004842/2+2*0.35625725/5</f>
+        <f>0+2*0.349004842/2+2*0.35625725/5</f>
         <v>0.49150774200000003</v>
       </c>
     </row>
@@ -4035,15 +4051,15 @@
         <v>35</v>
       </c>
       <c r="O106" s="1">
-        <f>2*51.62</f>
+        <f>0+2*51.62</f>
         <v>103.24</v>
       </c>
       <c r="P106" s="1">
-        <f>2*42.77</f>
+        <f>0+2*42.77</f>
         <v>85.54</v>
       </c>
       <c r="Q106" s="1">
-        <f>2*0.349021774/2+2*0.35625725/5</f>
+        <f>0+2*0.349021774/2+2*0.35625725/5</f>
         <v>0.49152467399999999</v>
       </c>
     </row>
@@ -4067,15 +4083,15 @@
         <v>35</v>
       </c>
       <c r="O107" s="1">
-        <f>4*92.66+3*97.66</f>
+        <f>0+4*92.66+3*97.66</f>
         <v>663.62</v>
       </c>
       <c r="P107" s="1">
-        <f>5*108.85+2*98.33</f>
+        <f>0+5*108.85+2*98.33</f>
         <v>740.91</v>
       </c>
       <c r="Q107" s="1">
-        <f>4*0.345423514/4+3*0.346708448/3+5*0.34125725/5+2*0.34665725/2</f>
+        <f>0+4*0.345423514/4+3*0.346708448/3+5*0.34125725/5+2*0.34665725/2</f>
         <v>1.3800464619999999</v>
       </c>
     </row>
@@ -4099,15 +4115,15 @@
         <v>35</v>
       </c>
       <c r="O108" s="1">
-        <f>20*23.78</f>
+        <f>0+20*23.78</f>
         <v>475.6</v>
       </c>
       <c r="P108" s="1">
-        <f>10*23.46+10*23.21</f>
+        <f>0+10*23.46+10*23.21</f>
         <v>466.70000000000005</v>
       </c>
       <c r="Q108" s="1">
-        <f>20*0.38906281/20+10*0.33125725/10+10*0.33125725/10</f>
+        <f>0+20*0.38906281/20+10*0.33125725/10+10*0.33125725/10</f>
         <v>1.0515773099999999</v>
       </c>
     </row>
@@ -4131,15 +4147,15 @@
         <v>35</v>
       </c>
       <c r="O109" s="1">
-        <f>10*110.48</f>
+        <f>0+10*110.48</f>
         <v>1104.8</v>
       </c>
       <c r="P109" s="1">
-        <f>10*110.51</f>
+        <f>0+10*110.51</f>
         <v>1105.1000000000001</v>
       </c>
       <c r="Q109" s="1">
-        <f>10*0.37408173/10+10*0.36725725/10</f>
+        <f>0+10*0.37408173/10+10*0.36725725/10</f>
         <v>0.74133897999999998</v>
       </c>
     </row>
@@ -4163,15 +4179,15 @@
         <v>35</v>
       </c>
       <c r="O110" s="1">
-        <f>10*110.48</f>
+        <f>0+10*110.48</f>
         <v>1104.8</v>
       </c>
       <c r="P110" s="1">
-        <f>10*110.5</f>
+        <f>0+10*110.5</f>
         <v>1105</v>
       </c>
       <c r="Q110" s="1">
-        <f>10*0.36758173/10+10*0.36725725/10</f>
+        <f>0+10*0.36758173/10+10*0.36725725/10</f>
         <v>0.73483897999999992</v>
       </c>
     </row>
@@ -4195,15 +4211,15 @@
         <v>35</v>
       </c>
       <c r="O111" s="1">
-        <f>5*99.66</f>
+        <f>0+5*99.66</f>
         <v>498.29999999999995</v>
       </c>
       <c r="P111" s="1">
-        <f>2*94.03+3*98.11</f>
+        <f>0+2*94.03+3*98.11</f>
         <v>482.39</v>
       </c>
       <c r="Q111" s="1">
-        <f>5*0.34389358/5+2*0.35065725/2+3*0.34265725/4</f>
+        <f>0+5*0.34389358/5+2*0.35065725/2+3*0.34265725/4</f>
         <v>0.95154376750000003</v>
       </c>
     </row>
@@ -4227,15 +4243,15 @@
         <v>35</v>
       </c>
       <c r="O112" s="1">
-        <f>1*99.96</f>
+        <f>0+1*99.96</f>
         <v>99.96</v>
       </c>
       <c r="P112" s="1">
-        <f>1*98.11</f>
+        <f>0+1*98.11</f>
         <v>98.11</v>
       </c>
       <c r="Q112" s="1">
-        <f>1*0.347714842/2+1*0.34265725/4</f>
+        <f>0+1*0.347714842/2+1*0.34265725/4</f>
         <v>0.25952173350000002</v>
       </c>
     </row>
@@ -4259,15 +4275,15 @@
         <v>35</v>
       </c>
       <c r="O113" s="1">
-        <f>1*99.96+3*104.96</f>
+        <f>0+1*99.96+3*104.96</f>
         <v>414.84</v>
       </c>
       <c r="P113" s="1">
-        <f>4*81.03</f>
+        <f>0+4*81.03</f>
         <v>324.12</v>
       </c>
       <c r="Q113" s="1">
-        <f>1*0.347714842/2+3*0.346520138/3+4*0.35705725/4</f>
+        <f>0+1*0.347714842/2+3*0.346520138/3+4*0.35705725/4</f>
         <v>0.87743480899999993</v>
       </c>
     </row>
@@ -4291,15 +4307,15 @@
         <v>35</v>
       </c>
       <c r="O114" s="1">
-        <f>10*24.02</f>
+        <f>0+10*24.02</f>
         <v>240.2</v>
       </c>
       <c r="P114" s="1">
-        <f>10*24.36</f>
+        <f>0+10*24.36</f>
         <v>243.6</v>
       </c>
       <c r="Q114" s="1">
-        <f>10*0.36067227/10+10*0.36625725/20</f>
+        <f>0+10*0.36067227/10+10*0.36625725/20</f>
         <v>0.54380089499999995</v>
       </c>
     </row>
@@ -4323,15 +4339,15 @@
         <v>35</v>
       </c>
       <c r="O115" s="1">
-        <f>10*44.495</f>
+        <f>0+10*44.495</f>
         <v>444.95</v>
       </c>
       <c r="P115" s="1">
-        <f>10*44.93</f>
+        <f>0+10*44.93</f>
         <v>449.3</v>
       </c>
       <c r="Q115" s="1">
-        <f>10*0.355716495/10+10*0.31425725/20</f>
+        <f>0+10*0.355716495/10+10*0.31425725/20</f>
         <v>0.51284512000000004</v>
       </c>
     </row>
@@ -4355,15 +4371,15 @@
         <v>35</v>
       </c>
       <c r="O116" s="1">
-        <f>10*43.9</f>
+        <f>0+10*43.9</f>
         <v>439</v>
       </c>
       <c r="P116" s="1">
-        <f>10*44.93</f>
+        <f>0+10*44.93</f>
         <v>449.3</v>
       </c>
       <c r="Q116" s="1">
-        <f>10*0.33568615/10+10*0.31425725/20</f>
+        <f>0+10*0.33568615/10+10*0.31425725/20</f>
         <v>0.49281477500000004</v>
       </c>
     </row>
@@ -4387,15 +4403,15 @@
         <v>35</v>
       </c>
       <c r="O117" s="1">
-        <f>5*30.48</f>
+        <f>0+5*30.48</f>
         <v>152.4</v>
       </c>
       <c r="P117" s="1">
-        <f>5*34.4</f>
+        <f>0+5*34.4</f>
         <v>172</v>
       </c>
       <c r="Q117" s="1">
-        <f>5*0.354052834/8+5*0.36625725/5</f>
+        <f>0+5*0.354052834/8+5*0.36625725/5</f>
         <v>0.58754027124999997</v>
       </c>
     </row>
@@ -4419,15 +4435,15 @@
         <v>35</v>
       </c>
       <c r="O118" s="1">
-        <f>3*30.48+7*30.96</f>
+        <f>0+3*30.48+7*30.96</f>
         <v>308.15999999999997</v>
       </c>
       <c r="P118" s="1">
-        <f>10*32.66</f>
+        <f>0+10*32.66</f>
         <v>326.59999999999997</v>
       </c>
       <c r="Q118" s="1">
-        <f>3*0.354052834/8+7*0.338895522/7+10*0.33125725/10</f>
+        <f>0+3*0.354052834/8+7*0.338895522/7+10*0.33125725/10</f>
         <v>0.80292258475</v>
       </c>
     </row>
@@ -4451,15 +4467,15 @@
         <v>35</v>
       </c>
       <c r="O119" s="1">
-        <f>4*129.5</f>
+        <f>0+4*129.5</f>
         <v>518</v>
       </c>
       <c r="P119" s="1">
-        <f>1*124.9+3*124.99</f>
+        <f>0+1*124.9+3*124.99</f>
         <v>499.87</v>
       </c>
       <c r="Q119" s="1">
-        <f>4*0.34937505/4+1*0.34925725/1+3*0.35985725/3</f>
+        <f>0+4*0.34937505/4+1*0.34925725/1+3*0.35985725/3</f>
         <v>1.05848955</v>
       </c>
     </row>
@@ -4483,15 +4499,15 @@
         <v>35</v>
       </c>
       <c r="O120" s="1">
-        <f>4*18.96</f>
+        <f>0+4*18.96</f>
         <v>75.84</v>
       </c>
       <c r="P120" s="1">
-        <f>4*17.41</f>
+        <f>0+4*17.41</f>
         <v>69.64</v>
       </c>
       <c r="Q120" s="1">
-        <f>4*0.343520034/4+4*0.33125725/10</f>
+        <f>0+4*0.343520034/4+4*0.33125725/10</f>
         <v>0.47602293399999995</v>
       </c>
     </row>
@@ -4515,15 +4531,15 @@
         <v>35</v>
       </c>
       <c r="O121" s="1">
-        <f>3*19.1+3*19.38</f>
+        <f>0+3*19.1+3*19.38</f>
         <v>115.44</v>
       </c>
       <c r="P121" s="1">
-        <f>6*17.41</f>
+        <f>0+6*17.41</f>
         <v>104.46000000000001</v>
       </c>
       <c r="Q121" s="1">
-        <f>3*0.34520648/3+3*0.345210764/3+6*0.33125725/10</f>
+        <f>0+3*0.34520648/3+3*0.345210764/3+6*0.33125725/10</f>
         <v>0.88917159400000001</v>
       </c>
     </row>
@@ -4547,15 +4563,15 @@
         <v>35</v>
       </c>
       <c r="O122" s="1">
-        <f>10*22.96+10*23.96+5*24.96+5*28.21</f>
+        <f>0+10*22.96+10*23.96+5*24.96+5*28.21</f>
         <v>735.05</v>
       </c>
       <c r="P122" s="1">
-        <f>30*20.66</f>
+        <f>0+30*20.66</f>
         <v>619.79999999999995</v>
       </c>
       <c r="Q122" s="1">
-        <f>10*0.33461821/10+10*0.33466921/10+5*0.34248873/5+5*0.327200315/15+30*0.29625725/30</f>
+        <f>0+10*0.33461821/10+10*0.33466921/10+5*0.34248873/5+5*0.327200315/15+30*0.29625725/30</f>
         <v>1.4171001716666669</v>
       </c>
     </row>
@@ -4579,15 +4595,15 @@
         <v>35</v>
       </c>
       <c r="O123" s="1">
-        <f>10*28.21</f>
+        <f>0+10*28.21</f>
         <v>282.10000000000002</v>
       </c>
       <c r="P123" s="1">
-        <f>10*18.66</f>
+        <f>0+10*18.66</f>
         <v>186.6</v>
       </c>
       <c r="Q123" s="1">
-        <f>10*0.327200315/15+10*0.33225725/10</f>
+        <f>0+10*0.327200315/15+10*0.33225725/10</f>
         <v>0.55039079333333341</v>
       </c>
     </row>
@@ -4611,15 +4627,15 @@
         <v>35</v>
       </c>
       <c r="O124" s="1">
-        <f>5*59.97</f>
+        <f>0+5*59.97</f>
         <v>299.85000000000002</v>
       </c>
       <c r="P124" s="1">
-        <f>5*55.06</f>
+        <f>0+5*55.06</f>
         <v>275.3</v>
       </c>
       <c r="Q124" s="1">
-        <f>5*0.347381485/5+5*0.34525725/5</f>
+        <f>0+5*0.347381485/5+5*0.34525725/5</f>
         <v>0.69263873500000006</v>
       </c>
     </row>
@@ -4643,15 +4659,15 @@
         <v>35</v>
       </c>
       <c r="O125" s="1">
-        <f>35*12.88+35*13.92</f>
+        <f>0+35*12.88+35*13.92</f>
         <v>938</v>
       </c>
       <c r="P125" s="1">
-        <f>50*11.8+20*11.8</f>
+        <f>0+50*11.8+20*11.8</f>
         <v>826</v>
       </c>
       <c r="Q125" s="1">
-        <f>35*0.32172133/35+35*0.39890697/35+50*0.36025725/50+20*0.30025725/50</f>
+        <f>0+35*0.32172133/35+35*0.39890697/35+50*0.36025725/50+20*0.30025725/50</f>
         <v>1.2009884499999999</v>
       </c>
     </row>
@@ -4675,15 +4691,15 @@
         <v>35</v>
       </c>
       <c r="O126" s="1">
-        <f>5*101.91</f>
+        <f>0+5*101.91</f>
         <v>509.54999999999995</v>
       </c>
       <c r="P126" s="1">
-        <f>5*98.4</f>
+        <f>0+5*98.4</f>
         <v>492</v>
       </c>
       <c r="Q126" s="1">
-        <f>5*0.348450955/5+5*0.34525725/5</f>
+        <f>0+5*0.348450955/5+5*0.34525725/5</f>
         <v>0.69370820500000008</v>
       </c>
     </row>
@@ -4707,15 +4723,15 @@
         <v>35</v>
       </c>
       <c r="O127" s="1">
-        <f>3*49.96+3*54.96+3*54.33</f>
+        <f>0+3*49.96+3*54.96+3*54.33</f>
         <v>477.75</v>
       </c>
       <c r="P127" s="1">
-        <f>3*44.33+6*43.01</f>
+        <f>0+3*44.33+6*43.01</f>
         <v>391.05</v>
       </c>
       <c r="Q127" s="1">
-        <f>3*0.348378638/3+3*0.348455138/3+3*0.348445499/3+3*0.34725725/3+6*0.35745725/6</f>
+        <f>0+3*0.348378638/3+3*0.348455138/3+3*0.348445499/3+3*0.34725725/3+6*0.35745725/6</f>
         <v>1.7499937750000001</v>
       </c>
     </row>
@@ -4739,15 +4755,15 @@
         <v>35</v>
       </c>
       <c r="O128" s="1">
-        <f>5*24.96</f>
+        <f>0+5*24.96</f>
         <v>124.80000000000001</v>
       </c>
       <c r="P128" s="1">
-        <f>5*21.07</f>
+        <f>0+5*21.07</f>
         <v>105.35</v>
       </c>
       <c r="Q128" s="1">
-        <f>5*0.34648873/5+5*0.36225725/10</f>
+        <f>0+5*0.34648873/5+5*0.36225725/10</f>
         <v>0.52761735500000007</v>
       </c>
     </row>
@@ -4771,15 +4787,15 @@
         <v>35</v>
       </c>
       <c r="O129" s="1">
-        <f>5*29.96</f>
+        <f>0+5*29.96</f>
         <v>149.80000000000001</v>
       </c>
       <c r="P129" s="1">
-        <f>5*21.07</f>
+        <f>0+5*21.07</f>
         <v>105.35</v>
       </c>
       <c r="Q129" s="1">
-        <f>5*0.34661623/5+5*0.36225725/10</f>
+        <f>0+5*0.34661623/5+5*0.36225725/10</f>
         <v>0.52774485500000001</v>
       </c>
     </row>
@@ -4803,15 +4819,15 @@
         <v>35</v>
       </c>
       <c r="O130" s="1">
-        <f>7*24.66+3*26.66</f>
+        <f>0+7*24.66+3*26.66</f>
         <v>252.60000000000002</v>
       </c>
       <c r="P130" s="1">
-        <f>10*21.45</f>
+        <f>0+10*21.45</f>
         <v>214.5</v>
       </c>
       <c r="Q130" s="1">
-        <f>7*0.344970612/7+3*0.348022148/3+10*0.36225725/10</f>
+        <f>0+7*0.344970612/7+3*0.348022148/3+10*0.36225725/10</f>
         <v>1.05525001</v>
       </c>
     </row>
@@ -4835,15 +4851,15 @@
         <v>35</v>
       </c>
       <c r="O131" s="1">
-        <f>5*26.66</f>
+        <f>0+5*26.66</f>
         <v>133.30000000000001</v>
       </c>
       <c r="P131" s="1">
-        <f>5*20.585</f>
+        <f>0+5*20.585</f>
         <v>102.92500000000001</v>
       </c>
       <c r="Q131" s="1">
-        <f>5*0.34653208/5+5*0.35225725/10</f>
+        <f>0+5*0.34653208/5+5*0.35225725/10</f>
         <v>0.52266070500000006</v>
       </c>
     </row>
@@ -4867,15 +4883,15 @@
         <v>35</v>
       </c>
       <c r="O132" s="1">
-        <f>8*46.88+4*46.96</f>
+        <f>0+8*46.88+4*46.96</f>
         <v>562.88</v>
       </c>
       <c r="P132" s="1">
-        <f>12*38.03</f>
+        <f>0+12*38.03</f>
         <v>456.36</v>
       </c>
       <c r="Q132" s="1">
-        <f>8*0.345121954/8+4*0.347691234/4+12*0.33525725/15</f>
+        <f>0+8*0.345121954/8+4*0.347691234/4+12*0.33525725/15</f>
         <v>0.96101898799999996</v>
       </c>
     </row>
@@ -4899,15 +4915,15 @@
         <v>35</v>
       </c>
       <c r="O133" s="1">
-        <f>3*48.96</f>
+        <f>0+3*48.96</f>
         <v>146.88</v>
       </c>
       <c r="P133" s="1">
-        <f>3*38.03</f>
+        <f>0+3*38.03</f>
         <v>114.09</v>
       </c>
       <c r="Q133" s="1">
-        <f>3*0.348363338/3+3*0.33525725/15</f>
+        <f>0+3*0.348363338/3+3*0.33525725/15</f>
         <v>0.41541478800000003</v>
       </c>
     </row>
@@ -4931,15 +4947,15 @@
         <v>35</v>
       </c>
       <c r="O134" s="1">
-        <f>1*48.325+3*49.86</f>
+        <f>0+1*48.325+3*49.86</f>
         <v>197.90499999999997</v>
       </c>
       <c r="P134" s="1">
-        <f>4*43.66</f>
+        <f>0+4*43.66</f>
         <v>174.64</v>
       </c>
       <c r="Q134" s="1">
-        <f>1*0.350722707/1+3*0.348377108/3+4*0.34425725/6</f>
+        <f>0+1*0.350722707/1+3*0.348377108/3+4*0.34425725/6</f>
         <v>0.92860464833333345</v>
       </c>
     </row>
@@ -4963,15 +4979,15 @@
         <v>35</v>
       </c>
       <c r="O135" s="1">
-        <f>2*59.94</f>
+        <f>0+2*59.94</f>
         <v>119.88</v>
       </c>
       <c r="P135" s="1">
-        <f>2*43.66</f>
+        <f>0+2*43.66</f>
         <v>87.32</v>
       </c>
       <c r="Q135" s="1">
-        <f>2*0.349106638/2+2*0.34425725/6</f>
+        <f>0+2*0.349106638/2+2*0.34425725/6</f>
         <v>0.46385905466666671</v>
       </c>
     </row>
@@ -4995,15 +5011,15 @@
         <v>35</v>
       </c>
       <c r="O136" s="1">
-        <f>5*48.63+3*50.66</f>
+        <f>0+5*48.63+3*50.66</f>
         <v>395.13</v>
       </c>
       <c r="P136" s="1">
-        <f>4*55.18+3*55.06+1*52.33</f>
+        <f>0+4*55.18+3*55.06+1*52.33</f>
         <v>438.22999999999996</v>
       </c>
       <c r="Q136" s="1">
-        <f>5*0.352592315/5+3*0.348389348/3+4*0.34625725/4+3*0.34725725/3+1*0.34625725/4</f>
+        <f>0+5*0.352592315/5+3*0.348389348/3+4*0.34625725/4+3*0.34725725/3+1*0.34625725/4</f>
         <v>1.4810604754999999</v>
       </c>
     </row>
@@ -5027,15 +5043,15 @@
         <v>35</v>
       </c>
       <c r="O137" s="1">
-        <f>3*55.31</f>
+        <f>0+3*55.31</f>
         <v>165.93</v>
       </c>
       <c r="P137" s="1">
-        <f>3*52.33</f>
+        <f>0+3*52.33</f>
         <v>156.99</v>
       </c>
       <c r="Q137" s="1">
-        <f>3*0.356661574/4+3*0.34625725/4</f>
+        <f>0+3*0.356661574/4+3*0.34625725/4</f>
         <v>0.52718911800000001</v>
       </c>
     </row>
@@ -5059,15 +5075,15 @@
         <v>35</v>
       </c>
       <c r="O138" s="1">
-        <f>1*55.31+8*54.66</f>
+        <f>0+1*55.31+8*54.66</f>
         <v>492.59</v>
       </c>
       <c r="P138" s="1">
-        <f>9*48.33</f>
+        <f>0+9*48.33</f>
         <v>434.96999999999997</v>
       </c>
       <c r="Q138" s="1">
-        <f>1*0.356661574/4+8*0.345439378/8+9*0.34025725/10</f>
+        <f>0+1*0.356661574/4+8*0.345439378/8+9*0.34025725/10</f>
         <v>0.74083629649999994</v>
       </c>
     </row>
@@ -5091,15 +5107,15 @@
         <v>35</v>
       </c>
       <c r="O139" s="1">
-        <f>6*59.86</f>
+        <f>0+6*59.86</f>
         <v>359.15999999999997</v>
       </c>
       <c r="P139" s="1">
-        <f>1*48.33+5*44.0573</f>
+        <f>0+1*48.33+5*44.0573</f>
         <v>268.61649999999997</v>
       </c>
       <c r="Q139" s="1">
-        <f>6*0.346802966/6+1*0.34025725/10+5*0.35125725/5</f>
+        <f>0+6*0.346802966/6+1*0.34025725/10+5*0.35125725/5</f>
         <v>0.73208594100000002</v>
       </c>
     </row>
